--- a/biology/Zoologie/Gouttière_œsophagienne/Gouttière_œsophagienne.xlsx
+++ b/biology/Zoologie/Gouttière_œsophagienne/Gouttière_œsophagienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Goutti%C3%A8re_%C5%93sophagienne</t>
+          <t>Gouttière_œsophagienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gouttière œsophagienne est un conduit reliant le cardia des ruminants à l'entrée de la caillette.
 Cette gouttière permet notamment d'éviter aux liquides d'arriver dans la panse en les conduisant directement vers la suite de l'appareil digestif. C'est le cas pour les petits veaux lorsqu'ils absorbent du lait, mais aussi des bovins adultes lorsqu'ils ont très soif.
